--- a/data/statistical/filled_NaN_xlsx/宁夏回族自治区_NaN_filled_polynomial.xlsx
+++ b/data/statistical/filled_NaN_xlsx/宁夏回族自治区_NaN_filled_polynomial.xlsx
@@ -600,7 +600,7 @@
         <v>45.3758</v>
       </c>
       <c r="E2">
-        <v>1371.694642409682</v>
+        <v>1371.694642871618</v>
       </c>
       <c r="F2">
         <v>5104.92</v>
@@ -609,85 +609,85 @@
         <v>11.56</v>
       </c>
       <c r="H2">
-        <v>50.93929050833685</v>
+        <v>50.93929050897714</v>
       </c>
       <c r="I2">
-        <v>4.184986279732892</v>
+        <v>3.72994999789813</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>-39.18441100331256</v>
       </c>
       <c r="K2">
-        <v>57.83682106330525</v>
+        <v>57.83682106307242</v>
       </c>
       <c r="L2">
-        <v>3.550467141109085</v>
+        <v>2.823147004523201</v>
       </c>
       <c r="M2">
-        <v>732.9862407762557</v>
+        <v>732.9862407613546</v>
       </c>
       <c r="N2">
-        <v>163.543231368547</v>
+        <v>150.1657633243363</v>
       </c>
       <c r="O2">
-        <v>29.19085783418268</v>
+        <v>29.1908578472212</v>
       </c>
       <c r="P2">
-        <v>2065.237717424282</v>
+        <v>2131.509071220284</v>
       </c>
       <c r="Q2">
-        <v>93.76624519250535</v>
+        <v>91.28324009422258</v>
       </c>
       <c r="R2">
-        <v>15.01504643133376</v>
+        <v>15.01504642958753</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>-54440.9911378175</v>
       </c>
       <c r="T2">
-        <v>81671.70097827911</v>
+        <v>81671.70099830627</v>
       </c>
       <c r="U2">
-        <v>4.151472527781152</v>
+        <v>4.151472527708393</v>
       </c>
       <c r="V2">
-        <v>27.72399381431751</v>
+        <v>27.7239938126877</v>
       </c>
       <c r="W2">
-        <v>24.40123076917371</v>
+        <v>24.40123076806776</v>
       </c>
       <c r="X2">
-        <v>2853.168329049367</v>
+        <v>3118.71468455184</v>
       </c>
       <c r="Y2">
-        <v>44.21220327820629</v>
+        <v>44.21220327541232</v>
       </c>
       <c r="Z2">
-        <v>110167.5931986548</v>
+        <v>109780.2016224348</v>
       </c>
       <c r="AA2">
-        <v>46.3618881108705</v>
+        <v>3612.46678443253</v>
       </c>
       <c r="AB2">
-        <v>241594.7243490219</v>
+        <v>2040444.112548828</v>
       </c>
       <c r="AC2">
-        <v>372828.3459739685</v>
+        <v>7275585.740447998</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>56670.20105242729</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>246821.2042579651</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>26666.16801217198</v>
       </c>
       <c r="AG2">
-        <v>23193.10112076998</v>
+        <v>79988.31593322754</v>
       </c>
       <c r="AH2">
-        <v>102483.8884992599</v>
+        <v>1336755.793422699</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -713,13 +713,13 @@
         <v>10.95</v>
       </c>
       <c r="H3">
-        <v>50.35659829928773</v>
+        <v>50.35659830004442</v>
       </c>
       <c r="I3">
         <v>3</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>-29.91572114231531</v>
       </c>
       <c r="K3">
         <v>53.8889886833124</v>
@@ -743,13 +743,13 @@
         <v>95.14</v>
       </c>
       <c r="R3">
-        <v>12.4231372482609</v>
+        <v>12.42313724616542</v>
       </c>
       <c r="S3">
         <v>3370.9</v>
       </c>
       <c r="T3">
-        <v>109427.2058782578</v>
+        <v>109427.2059020996</v>
       </c>
       <c r="U3">
         <v>4.16</v>
@@ -764,34 +764,34 @@
         <v>3740</v>
       </c>
       <c r="Y3">
-        <v>50.13818405079655</v>
+        <v>50.13818404893391</v>
       </c>
       <c r="Z3">
-        <v>96287.37758061057</v>
+        <v>98521.54896877223</v>
       </c>
       <c r="AA3">
-        <v>40.51923076738603</v>
+        <v>3158.099651381373</v>
       </c>
       <c r="AB3">
-        <v>200439.9456701279</v>
+        <v>1741119.993865967</v>
       </c>
       <c r="AC3">
-        <v>312752.6351280212</v>
+        <v>6144375.008575439</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>47346.50524663925</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>212896.6448078156</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>25704.42640306056</v>
       </c>
       <c r="AG3">
-        <v>19859.87808042765</v>
+        <v>71162.74844694138</v>
       </c>
       <c r="AH3">
-        <v>87961.20947217941</v>
+        <v>1174468.781833649</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -817,13 +817,13 @@
         <v>11.18</v>
       </c>
       <c r="H4">
-        <v>49.92125000164378</v>
+        <v>49.92125000228407</v>
       </c>
       <c r="I4">
         <v>4.5</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>-20.80993467778899</v>
       </c>
       <c r="K4">
         <v>44.6794251247301</v>
@@ -847,7 +847,7 @@
         <v>98.8</v>
       </c>
       <c r="R4">
-        <v>10.27117646555416</v>
+        <v>10.27117646287661</v>
       </c>
       <c r="S4">
         <v>4877.1</v>
@@ -868,34 +868,34 @@
         <v>4462</v>
       </c>
       <c r="Y4">
-        <v>55.64934339432511</v>
+        <v>55.64934339339379</v>
       </c>
       <c r="Z4">
         <v>162594</v>
       </c>
       <c r="AA4">
-        <v>35.21853146608919</v>
+        <v>2748.274476379156</v>
       </c>
       <c r="AB4">
-        <v>163310.607998848</v>
+        <v>1487729.123504639</v>
       </c>
       <c r="AC4">
-        <v>258014.0344219208</v>
+        <v>5130286.336029053</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>38963.85089945793</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>181548.3392038345</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>24699.76836045086</v>
       </c>
       <c r="AG4">
-        <v>16764.64392918348</v>
+        <v>63198.21647500992</v>
       </c>
       <c r="AH4">
-        <v>74631.87080669403</v>
+        <v>1025561.565113068</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -927,7 +927,7 @@
         <v>4.5</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>-11.86705160961719</v>
       </c>
       <c r="K5">
         <v>38.8060919671569</v>
@@ -972,34 +972,34 @@
         <v>2217</v>
       </c>
       <c r="Y5">
-        <v>60.74568130925763</v>
+        <v>60.7456813090248</v>
       </c>
       <c r="Z5">
         <v>112924</v>
       </c>
       <c r="AA5">
-        <v>30.45979020697996</v>
+        <v>2382.99125944078</v>
       </c>
       <c r="AB5">
-        <v>130206.7113399506</v>
+        <v>1280271.501449585</v>
       </c>
       <c r="AC5">
-        <v>208612.5438556671</v>
+        <v>4233319.72277832</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>31522.23801064491</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>152776.2874479294</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>23652.19388432801</v>
       </c>
       <c r="AG5">
-        <v>13907.3986671567</v>
+        <v>56094.72001838684</v>
       </c>
       <c r="AH5">
-        <v>62495.87250089645</v>
+        <v>890034.1432418823</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -1076,34 +1076,34 @@
         <v>1582</v>
       </c>
       <c r="Y6">
-        <v>65.42719779536128</v>
+        <v>65.42719779559411</v>
       </c>
       <c r="Z6">
         <v>55440</v>
       </c>
       <c r="AA6">
-        <v>26.24300698982552</v>
+        <v>2062.250000551343</v>
       </c>
       <c r="AB6">
-        <v>101128.2556877136</v>
+        <v>1118747.127700806</v>
       </c>
       <c r="AC6">
-        <v>164548.1634349823</v>
+        <v>3453475.168762207</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>25021.66658091545</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>126580.4895381927</v>
       </c>
       <c r="AF6">
-        <v>24.99999947100878</v>
+        <v>22561.70297467709</v>
       </c>
       <c r="AG6">
-        <v>11288.14229440689</v>
+        <v>49852.25907611847</v>
       </c>
       <c r="AH6">
-        <v>51553.21455430984</v>
+        <v>767886.5162391663</v>
       </c>
     </row>
     <row r="7" spans="1:34">
@@ -1186,28 +1186,28 @@
         <v>73568</v>
       </c>
       <c r="AA7">
-        <v>22.5681818141602</v>
+        <v>1786.050699755549</v>
       </c>
       <c r="AB7">
-        <v>76075.24104785919</v>
+        <v>1003156.002319336</v>
       </c>
       <c r="AC7">
-        <v>125820.8931522369</v>
+        <v>2790752.674041748</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>19462.13661003113</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>102960.9454755783</v>
       </c>
       <c r="AF7">
-        <v>149.9999996200204</v>
+        <v>21428.2956314981</v>
       </c>
       <c r="AG7">
-        <v>8906.874811053276</v>
+        <v>44470.83364892006</v>
       </c>
       <c r="AH7">
-        <v>41803.89696836472</v>
+        <v>659118.6840858459</v>
       </c>
     </row>
     <row r="8" spans="1:34">
@@ -1290,28 +1290,28 @@
         <v>103423</v>
       </c>
       <c r="AA8">
-        <v>19.43531468138099</v>
+        <v>1554.393356978893</v>
       </c>
       <c r="AB8">
-        <v>55047.6674156189</v>
+        <v>933498.1251983643</v>
       </c>
       <c r="AC8">
-        <v>92430.73300933838</v>
+        <v>2245152.238525391</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>14843.64809751511</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>81917.65525913239</v>
       </c>
       <c r="AF8">
-        <v>254.9999997615814</v>
+        <v>20251.97185482085</v>
       </c>
       <c r="AG8">
-        <v>6763.596216797829</v>
+        <v>39950.44373631477</v>
       </c>
       <c r="AH8">
-        <v>33247.91974258423</v>
+        <v>563730.6468009949</v>
       </c>
     </row>
     <row r="9" spans="1:34">
@@ -1394,28 +1394,28 @@
         <v>89480</v>
       </c>
       <c r="AA9">
-        <v>16.84440559032373</v>
+        <v>1367.277972266078</v>
       </c>
       <c r="AB9">
-        <v>38045.53479480743</v>
+        <v>909773.4963989258</v>
       </c>
       <c r="AC9">
-        <v>64377.68301010132</v>
+        <v>1816673.862335205</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>11166.20104432106</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>63450.61889076233</v>
       </c>
       <c r="AF9">
-        <v>339.9999998658895</v>
+        <v>19032.73164461553</v>
       </c>
       <c r="AG9">
-        <v>4858.306511819363</v>
+        <v>36291.08933877945</v>
       </c>
       <c r="AH9">
-        <v>25885.28287696838</v>
+        <v>481722.4043693542</v>
       </c>
     </row>
     <row r="10" spans="1:34">
@@ -1498,28 +1498,28 @@
         <v>94932</v>
       </c>
       <c r="AA10">
-        <v>14.79545454145409</v>
+        <v>1224.704545602202</v>
       </c>
       <c r="AB10">
-        <v>25068.84318161011</v>
+        <v>931982.1159210205</v>
       </c>
       <c r="AC10">
-        <v>41661.74314880371</v>
+        <v>1505317.545440674</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>8429.795449256897</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>47559.83636856079</v>
       </c>
       <c r="AF10">
-        <v>404.9999999329448</v>
+        <v>17770.57500091195</v>
       </c>
       <c r="AG10">
-        <v>3191.005696177483</v>
+        <v>33492.77045607567</v>
       </c>
       <c r="AH10">
-        <v>19715.98637008667</v>
+        <v>413093.9568023682</v>
       </c>
     </row>
     <row r="11" spans="1:34">
@@ -1602,28 +1602,28 @@
         <v>90478</v>
       </c>
       <c r="AA11">
-        <v>11</v>
+        <v>935</v>
       </c>
       <c r="AB11">
-        <v>9056</v>
+        <v>869939</v>
       </c>
       <c r="AC11">
-        <v>10106</v>
+        <v>975403</v>
       </c>
       <c r="AD11">
-        <v>17</v>
+        <v>4672</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>22462</v>
       </c>
       <c r="AF11">
-        <v>450</v>
+        <v>13871</v>
       </c>
       <c r="AG11">
-        <v>1761.693769693375</v>
+        <v>24683</v>
       </c>
       <c r="AH11">
-        <v>4378</v>
+        <v>284663</v>
       </c>
     </row>
     <row r="12" spans="1:34">
@@ -1706,28 +1706,28 @@
         <v>94814</v>
       </c>
       <c r="AA12">
-        <v>15</v>
+        <v>1147</v>
       </c>
       <c r="AB12">
-        <v>10524</v>
+        <v>1155257</v>
       </c>
       <c r="AC12">
-        <v>11263</v>
+        <v>1202898</v>
       </c>
       <c r="AD12">
-        <v>12</v>
+        <v>5929</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>26715</v>
       </c>
       <c r="AF12">
-        <v>475.0000000223517</v>
+        <v>15690</v>
       </c>
       <c r="AG12">
-        <v>200</v>
+        <v>29407</v>
       </c>
       <c r="AH12">
-        <v>6767</v>
+        <v>311325</v>
       </c>
     </row>
     <row r="13" spans="1:34">
@@ -1810,28 +1810,28 @@
         <v>101145</v>
       </c>
       <c r="AA13">
-        <v>11</v>
+        <v>1136</v>
       </c>
       <c r="AB13">
-        <v>14822</v>
+        <v>1304677</v>
       </c>
       <c r="AC13">
-        <v>12522</v>
+        <v>1475047</v>
       </c>
       <c r="AD13">
-        <v>39</v>
+        <v>6672</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>22223</v>
       </c>
       <c r="AF13">
-        <v>480</v>
+        <v>15645</v>
       </c>
       <c r="AG13">
-        <v>80</v>
+        <v>38852</v>
       </c>
       <c r="AH13">
-        <v>16182</v>
+        <v>314396</v>
       </c>
     </row>
     <row r="14" spans="1:34">
@@ -1914,28 +1914,28 @@
         <v>84191</v>
       </c>
       <c r="AA14">
-        <v>9</v>
+        <v>1197</v>
       </c>
       <c r="AB14">
-        <v>14927</v>
+        <v>1537770</v>
       </c>
       <c r="AC14">
-        <v>14270</v>
+        <v>1697889</v>
       </c>
       <c r="AD14">
-        <v>124</v>
+        <v>8439</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>16409</v>
       </c>
       <c r="AF14">
-        <v>465</v>
+        <v>17146</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>37150</v>
       </c>
       <c r="AH14">
-        <v>17492</v>
+        <v>371310</v>
       </c>
     </row>
     <row r="15" spans="1:34">
@@ -2018,28 +2018,28 @@
         <v>81313</v>
       </c>
       <c r="AA15">
-        <v>18</v>
+        <v>1308</v>
       </c>
       <c r="AB15">
-        <v>28610</v>
+        <v>1853268</v>
       </c>
       <c r="AC15">
-        <v>22277</v>
+        <v>1939232</v>
       </c>
       <c r="AD15">
-        <v>155</v>
+        <v>10383</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>12638</v>
       </c>
       <c r="AF15">
-        <v>429.9999999329448</v>
+        <v>8297</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>41046</v>
       </c>
       <c r="AH15">
-        <v>15973</v>
+        <v>344566</v>
       </c>
     </row>
     <row r="16" spans="1:34">
@@ -2122,28 +2122,28 @@
         <v>91531</v>
       </c>
       <c r="AA16">
-        <v>17</v>
+        <v>1393</v>
       </c>
       <c r="AB16">
-        <v>34421</v>
+        <v>2132658</v>
       </c>
       <c r="AC16">
-        <v>24492</v>
+        <v>2353460</v>
       </c>
       <c r="AD16">
-        <v>207</v>
+        <v>12900</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>9306</v>
       </c>
       <c r="AF16">
-        <v>374.999999858439</v>
+        <v>8105</v>
       </c>
       <c r="AG16">
-        <v>0</v>
+        <v>25916</v>
       </c>
       <c r="AH16">
-        <v>7550</v>
+        <v>298952</v>
       </c>
     </row>
     <row r="17" spans="1:34">
@@ -2178,10 +2178,10 @@
         <v>86.1386</v>
       </c>
       <c r="K17">
-        <v>9.234309019288048</v>
+        <v>9.234309019753709</v>
       </c>
       <c r="L17">
-        <v>3.915247983207312</v>
+        <v>3.604440419854951</v>
       </c>
       <c r="M17">
         <v>43.0040423282882</v>
@@ -2226,28 +2226,28 @@
         <v>78238</v>
       </c>
       <c r="AA17">
-        <v>13</v>
+        <v>1422</v>
       </c>
       <c r="AB17">
-        <v>54351.2</v>
+        <v>2329266.2</v>
       </c>
       <c r="AC17">
-        <v>24826.5</v>
+        <v>2547259.4</v>
       </c>
       <c r="AD17">
-        <v>248</v>
+        <v>15374</v>
       </c>
       <c r="AE17">
-        <v>0</v>
+        <v>6273</v>
       </c>
       <c r="AF17">
-        <v>299.9999997392297</v>
+        <v>4199</v>
       </c>
       <c r="AG17">
-        <v>0</v>
+        <v>24931</v>
       </c>
       <c r="AH17">
-        <v>18284</v>
+        <v>207508</v>
       </c>
     </row>
     <row r="18" spans="1:34">
@@ -2282,10 +2282,10 @@
         <v>91.59999999999999</v>
       </c>
       <c r="K18">
-        <v>8.384610019507818</v>
+        <v>8.384610019973479</v>
       </c>
       <c r="L18">
-        <v>3.56187928607167</v>
+        <v>3.168490073530986</v>
       </c>
       <c r="M18">
         <v>35.2573964017942</v>
@@ -2312,13 +2312,13 @@
         <v>176208</v>
       </c>
       <c r="U18">
-        <v>3.282329670066247</v>
+        <v>3.282329670153558</v>
       </c>
       <c r="V18">
         <v>95.5</v>
       </c>
       <c r="W18">
-        <v>105.3652307689772</v>
+        <v>105.3652307699667</v>
       </c>
       <c r="X18">
         <v>3727</v>
@@ -2330,28 +2330,28 @@
         <v>100055</v>
       </c>
       <c r="AA18">
-        <v>15</v>
+        <v>1495</v>
       </c>
       <c r="AB18">
-        <v>59481.3</v>
+        <v>2701824.1</v>
       </c>
       <c r="AC18">
-        <v>54408.5</v>
+        <v>2984434.7</v>
       </c>
       <c r="AD18">
-        <v>268</v>
+        <v>19003</v>
       </c>
       <c r="AE18">
-        <v>0</v>
+        <v>5507.6</v>
       </c>
       <c r="AF18">
-        <v>204.9999996051192</v>
+        <v>9488.5</v>
       </c>
       <c r="AG18">
-        <v>0</v>
+        <v>44026.2</v>
       </c>
       <c r="AH18">
-        <v>6306.2</v>
+        <v>335842</v>
       </c>
     </row>
     <row r="19" spans="1:34">
@@ -2368,7 +2368,7 @@
         <v>50.3</v>
       </c>
       <c r="E19">
-        <v>21685.76964339614</v>
+        <v>21685.7696428895</v>
       </c>
       <c r="F19">
         <v>24160.9634</v>
@@ -2386,10 +2386,10 @@
         <v>99.5</v>
       </c>
       <c r="K19">
-        <v>7.833719578455202</v>
+        <v>7.833719579037279</v>
       </c>
       <c r="L19">
-        <v>3.098407297993987</v>
+        <v>5.241591331479453</v>
       </c>
       <c r="M19">
         <v>33.3551199419498</v>
@@ -2416,13 +2416,13 @@
         <v>62664</v>
       </c>
       <c r="U19">
-        <v>3.541346153549966</v>
+        <v>3.541346153680934</v>
       </c>
       <c r="V19">
         <v>95.90000000000001</v>
       </c>
       <c r="W19">
-        <v>109.2651923074154</v>
+        <v>109.2651923085214</v>
       </c>
       <c r="X19">
         <v>3065</v>
@@ -2434,28 +2434,28 @@
         <v>92254</v>
       </c>
       <c r="AA19">
-        <v>25</v>
+        <v>1817</v>
       </c>
       <c r="AB19">
-        <v>89845.7</v>
+        <v>2972973</v>
       </c>
       <c r="AC19">
-        <v>66212</v>
+        <v>3591510.3</v>
       </c>
       <c r="AD19">
-        <v>190</v>
+        <v>23874</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>5184.7</v>
       </c>
       <c r="AF19">
-        <v>89.99999944865704</v>
+        <v>4413.6</v>
       </c>
       <c r="AG19">
-        <v>0</v>
+        <v>55206.8</v>
       </c>
       <c r="AH19">
-        <v>8075.4</v>
+        <v>325244.6</v>
       </c>
     </row>
     <row r="20" spans="1:34">
@@ -2472,7 +2472,7 @@
         <v>50.3394</v>
       </c>
       <c r="E20">
-        <v>23186.20157621801</v>
+        <v>23186.20157569647</v>
       </c>
       <c r="F20">
         <v>22379.0859</v>
@@ -2490,10 +2490,10 @@
         <v>101.5343</v>
       </c>
       <c r="K20">
-        <v>7.581637696013786</v>
+        <v>7.581637696828693</v>
       </c>
       <c r="L20">
-        <v>3.365302142108086</v>
+        <v>3.996605951313449</v>
       </c>
       <c r="M20">
         <v>18.2568772238589</v>
@@ -2520,13 +2520,13 @@
         <v>47099</v>
       </c>
       <c r="U20">
-        <v>3.837225920811761</v>
+        <v>3.837225920942728</v>
       </c>
       <c r="V20">
         <v>96.7</v>
       </c>
       <c r="W20">
-        <v>113.0286493210006</v>
+        <v>113.0286493220483</v>
       </c>
       <c r="X20">
         <v>4432</v>
@@ -2538,28 +2538,28 @@
         <v>87032</v>
       </c>
       <c r="AA20">
-        <v>19</v>
+        <v>2212</v>
       </c>
       <c r="AB20">
-        <v>85474</v>
+        <v>3683426</v>
       </c>
       <c r="AC20">
-        <v>87015</v>
+        <v>4428792</v>
       </c>
       <c r="AD20">
-        <v>284</v>
+        <v>30818</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>45532</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>929</v>
       </c>
       <c r="AG20">
-        <v>0</v>
+        <v>41859</v>
       </c>
       <c r="AH20">
-        <v>4318</v>
+        <v>430622</v>
       </c>
     </row>
     <row r="21" spans="1:34">
@@ -2576,7 +2576,7 @@
         <v>47.2387</v>
       </c>
       <c r="E21">
-        <v>24720.5764362216</v>
+        <v>24720.57643562555</v>
       </c>
       <c r="F21">
         <v>25385.6</v>
@@ -2594,25 +2594,25 @@
         <v>99.5094</v>
       </c>
       <c r="K21">
-        <v>7.628364372416399</v>
+        <v>7.628364373231307</v>
       </c>
       <c r="L21">
-        <v>3.265302973121263</v>
+        <v>3.760476208088267</v>
       </c>
       <c r="M21">
         <v>13.3321280492831</v>
       </c>
       <c r="N21">
-        <v>154.6276922198449</v>
+        <v>172.5221148880191</v>
       </c>
       <c r="O21">
-        <v>112.7483088229783</v>
+        <v>112.7483088090084</v>
       </c>
       <c r="P21">
         <v>965.1</v>
       </c>
       <c r="Q21">
-        <v>91.84948462750624</v>
+        <v>89.87471783650713</v>
       </c>
       <c r="R21">
         <v>42</v>
@@ -2621,49 +2621,49 @@
         <v>430249</v>
       </c>
       <c r="T21">
-        <v>37981.10297775269</v>
+        <v>37981.10289573669</v>
       </c>
       <c r="U21">
-        <v>4.169968971851631</v>
+        <v>4.16996897199715</v>
       </c>
       <c r="V21">
         <v>98.2</v>
       </c>
       <c r="W21">
-        <v>116.6556018096744</v>
+        <v>116.6556018107804</v>
       </c>
       <c r="X21">
-        <v>3346.818067578107</v>
+        <v>2903.224435313115</v>
       </c>
       <c r="Y21">
-        <v>85.87137362128124</v>
+        <v>85.87137361709028</v>
       </c>
       <c r="Z21">
         <v>100414</v>
       </c>
       <c r="AA21">
-        <v>25</v>
+        <v>2607</v>
       </c>
       <c r="AB21">
-        <v>158044</v>
+        <v>4167292</v>
       </c>
       <c r="AC21">
-        <v>127386</v>
+        <v>5923750</v>
       </c>
       <c r="AD21">
-        <v>350</v>
+        <v>41274</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>23189</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>711</v>
       </c>
       <c r="AG21">
-        <v>95</v>
+        <v>66733</v>
       </c>
       <c r="AH21">
-        <v>23350</v>
+        <v>561493</v>
       </c>
     </row>
     <row r="22" spans="1:34">
@@ -2680,7 +2680,7 @@
         <v>43.7</v>
       </c>
       <c r="E22">
-        <v>26288.89422342181</v>
+        <v>26288.89422276616</v>
       </c>
       <c r="F22">
         <v>24213.4137</v>
@@ -2692,82 +2692,82 @@
         <v>66.34</v>
       </c>
       <c r="I22">
-        <v>3.849030197672528</v>
+        <v>3.931887967400765</v>
       </c>
       <c r="J22">
-        <v>115.2377408900065</v>
+        <v>115.237740890414</v>
       </c>
       <c r="K22">
-        <v>7.973899607546628</v>
+        <v>7.97389960847795</v>
       </c>
       <c r="L22">
-        <v>4.134571398545281</v>
+        <v>3.580208168461894</v>
       </c>
       <c r="M22">
-        <v>36.95664979703724</v>
+        <v>36.95664981752634</v>
       </c>
       <c r="N22">
-        <v>158.6141071776259</v>
+        <v>165.2231558539816</v>
       </c>
       <c r="O22">
-        <v>130.8541834349744</v>
+        <v>130.8541834200732</v>
       </c>
       <c r="P22">
-        <v>1936.014347476992</v>
+        <v>1548.397579839989</v>
       </c>
       <c r="Q22">
-        <v>99.05312842321719</v>
+        <v>96.05055492420523</v>
       </c>
       <c r="R22">
-        <v>46.76705881999806</v>
+        <v>46.76705882861279</v>
       </c>
       <c r="S22">
         <v>348008</v>
       </c>
       <c r="T22">
-        <v>2287.142199516296</v>
+        <v>2287.142104148865</v>
       </c>
       <c r="U22">
-        <v>4.539575306669576</v>
+        <v>4.539575306815095</v>
       </c>
       <c r="V22">
-        <v>97.15662538446486</v>
+        <v>97.15662538527977</v>
       </c>
       <c r="W22">
-        <v>120.1460497733206</v>
+        <v>120.1460497746593</v>
       </c>
       <c r="X22">
-        <v>2308.593514464458</v>
+        <v>2706.657939533489</v>
       </c>
       <c r="Y22">
-        <v>83.91574724542443</v>
+        <v>83.91574724006932</v>
       </c>
       <c r="Z22">
-        <v>90368.72972561129</v>
+        <v>70422.92264515527</v>
       </c>
       <c r="AA22">
-        <v>37</v>
+        <v>3120</v>
       </c>
       <c r="AB22">
-        <v>194348.5</v>
+        <v>4927409.8</v>
       </c>
       <c r="AC22">
-        <v>216027.7</v>
+        <v>7290772</v>
       </c>
       <c r="AD22">
-        <v>508</v>
+        <v>50919</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>73554.10000000001</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>682</v>
       </c>
       <c r="AG22">
-        <v>2116.9</v>
+        <v>67251.3</v>
       </c>
       <c r="AH22">
-        <v>61087</v>
+        <v>688432.3</v>
       </c>
     </row>
     <row r="23" spans="1:34">
@@ -2784,94 +2784,94 @@
         <v>45.1</v>
       </c>
       <c r="E23">
-        <v>27891.15493775904</v>
+        <v>27891.15493704379</v>
       </c>
       <c r="F23">
-        <v>27374.43967244774</v>
+        <v>27374.43967232853</v>
       </c>
       <c r="G23">
         <v>3.43</v>
       </c>
       <c r="H23">
-        <v>69.64497549098451</v>
+        <v>69.64497549028601</v>
       </c>
       <c r="I23">
-        <v>3.973053463517916</v>
+        <v>3.66086721421484</v>
       </c>
       <c r="J23">
-        <v>121.2483628218179</v>
+        <v>121.2483628222835</v>
       </c>
       <c r="K23">
-        <v>8.618243401288055</v>
+        <v>8.618243402219377</v>
       </c>
       <c r="L23">
-        <v>3.109079938804619</v>
+        <v>3.358844209563783</v>
       </c>
       <c r="M23">
-        <v>48.41864876821637</v>
+        <v>48.41864879056811</v>
       </c>
       <c r="N23">
-        <v>160.561124516864</v>
+        <v>173.4281457989215</v>
       </c>
       <c r="O23">
-        <v>150.3308694502339</v>
+        <v>150.3308694330044</v>
       </c>
       <c r="P23">
-        <v>1756.77245266085</v>
+        <v>2130.641059095298</v>
       </c>
       <c r="Q23">
-        <v>92.06307414899247</v>
+        <v>99.11036727711593</v>
       </c>
       <c r="R23">
-        <v>52.97411764203571</v>
+        <v>52.97411765251309</v>
       </c>
       <c r="S23">
-        <v>409449.2535976395</v>
+        <v>409449.253599219</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>-36746.26425075531</v>
       </c>
       <c r="U23">
-        <v>4.946044925251044</v>
+        <v>4.946044925440219</v>
       </c>
       <c r="V23">
-        <v>96.1480866848724</v>
+        <v>96.1480866856873</v>
       </c>
       <c r="W23">
-        <v>123.49999321223</v>
+        <v>123.4999932135106</v>
       </c>
       <c r="X23">
-        <v>2448.543230079407</v>
+        <v>1598.917830207709</v>
       </c>
       <c r="Y23">
-        <v>81.54529944073875</v>
+        <v>81.54529943410307</v>
       </c>
       <c r="Z23">
-        <v>77757.74611246523</v>
+        <v>80404.43611751604</v>
       </c>
       <c r="AA23">
-        <v>37.47727273451164</v>
+        <v>3424.568182036281</v>
       </c>
       <c r="AB23">
-        <v>222686.9841108322</v>
+        <v>5400619.766235352</v>
       </c>
       <c r="AC23">
-        <v>232031.5477924347</v>
+        <v>8115792.819152832</v>
       </c>
       <c r="AD23">
-        <v>482.9090909101069</v>
+        <v>58491.29546689987</v>
       </c>
       <c r="AE23">
-        <v>0</v>
+        <v>75418.76365470886</v>
       </c>
       <c r="AF23">
-        <v>0</v>
+        <v>-2542.856817603111</v>
       </c>
       <c r="AG23">
-        <v>3173.08401376009</v>
+        <v>75468.85682702065</v>
       </c>
       <c r="AH23">
-        <v>48109.10454893112</v>
+        <v>738485.4706077576</v>
       </c>
     </row>
   </sheetData>
